--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>anchor score</t>
   </si>
@@ -70,268 +70,262 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>cooke</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>son</t>
+    <t>years</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>nicely</t>
   </si>
   <si>
-    <t>cooks</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>always</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>far</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>cup</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
     <t>big</t>
   </si>
   <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>makes</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>one</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>product</t>
@@ -695,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -764,13 +758,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -782,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -806,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -814,13 +808,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -832,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -856,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -864,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.525</v>
+        <v>0.45</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -882,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.846749226006192</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>547</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>547</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -906,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -914,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3962264150943396</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -932,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8529411764705882</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L6">
-        <v>551</v>
+        <v>57</v>
       </c>
       <c r="M6">
-        <v>551</v>
+        <v>57</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -956,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -964,13 +958,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3255813953488372</v>
+        <v>0.2868217054263566</v>
       </c>
       <c r="C7">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -982,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8260869565217391</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1006,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1014,22 +1008,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2564102564102564</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>58</v>
@@ -1038,13 +1032,13 @@
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.7931034482758621</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1056,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1064,13 +1058,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2323232323232323</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1082,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.7402597402597403</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="L9">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="M9">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1106,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1114,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.145945945945946</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1132,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.7402597402597403</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L10">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1156,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1164,13 +1158,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7111111111111111</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1182,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1190,7 +1184,7 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7045454545454546</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L12">
         <v>31</v>
@@ -1208,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1216,13 +1210,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.6915254237288135</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L13">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c r="M13">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1234,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1242,13 +1236,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.6714285714285714</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1262,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.6712328767123288</v>
+        <v>0.6457142857142857</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1288,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6388443017656501</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L16">
-        <v>796</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>796</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1312,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>450</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1320,13 +1314,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6285714285714286</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L17">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1338,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1346,13 +1340,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.5972222222222222</v>
+        <v>0.6316211878009631</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>787</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>787</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1364,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1372,13 +1366,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.5774647887323944</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1390,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1398,13 +1392,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.5625</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1416,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1424,13 +1418,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.5573770491803278</v>
+        <v>0.5625</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1442,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1450,13 +1444,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.5441176470588235</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1468,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1476,25 +1470,25 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.543859649122807</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L23">
+        <v>39</v>
+      </c>
+      <c r="M23">
+        <v>39</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>31</v>
-      </c>
-      <c r="M23">
-        <v>31</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>26</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1502,13 +1496,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5329341317365269</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L24">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="M24">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1520,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1528,13 +1522,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5037593984962406</v>
+        <v>0.546875</v>
       </c>
       <c r="L25">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1546,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1554,13 +1548,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.4923076923076923</v>
+        <v>0.5149700598802395</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1572,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1580,13 +1574,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.4819277108433735</v>
+        <v>0.51</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1598,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1606,13 +1600,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.4791666666666667</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1624,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1632,13 +1626,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.463855421686747</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="L29">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="M29">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1650,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1658,13 +1652,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.4615384615384616</v>
+        <v>0.481203007518797</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="M30">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1676,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1684,13 +1678,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4519230769230769</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L31">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1702,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1710,13 +1704,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.42</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1728,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>58</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1736,13 +1730,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4102564102564102</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1754,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1762,13 +1756,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.3968253968253968</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1780,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1788,13 +1782,13 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>0.3834586466165413</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L35">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1806,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>82</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1814,13 +1808,13 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.3725490196078431</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1832,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1840,13 +1834,13 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3552631578947368</v>
+        <v>0.3696498054474708</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1858,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>49</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1866,13 +1860,13 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>0.3538461538461539</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1884,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1892,13 +1886,13 @@
         <v>53</v>
       </c>
       <c r="K39">
-        <v>0.3469387755102041</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1910,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1918,13 +1912,13 @@
         <v>54</v>
       </c>
       <c r="K40">
-        <v>0.3385214007782101</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="L40">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1936,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>170</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1944,13 +1938,13 @@
         <v>55</v>
       </c>
       <c r="K41">
-        <v>0.3382352941176471</v>
+        <v>0.3553921568627451</v>
       </c>
       <c r="L41">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M41">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1962,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1970,13 +1964,13 @@
         <v>56</v>
       </c>
       <c r="K42">
-        <v>0.3225806451612903</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1988,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1996,13 +1990,13 @@
         <v>57</v>
       </c>
       <c r="K43">
-        <v>0.3214285714285715</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2014,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2022,13 +2016,13 @@
         <v>58</v>
       </c>
       <c r="K44">
-        <v>0.3061224489795918</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2040,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>34</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2048,13 +2042,13 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.2890410958904109</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="L45">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2066,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>519</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2074,13 +2068,13 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.277511961722488</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L46">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M46">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2092,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2100,13 +2094,13 @@
         <v>61</v>
       </c>
       <c r="K47">
-        <v>0.2772277227722773</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2118,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2126,13 +2120,13 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>0.2763157894736842</v>
+        <v>0.2767123287671233</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2144,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>55</v>
+        <v>528</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2152,13 +2146,13 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.2733812949640288</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L49">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2170,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2178,13 +2172,13 @@
         <v>64</v>
       </c>
       <c r="K50">
-        <v>0.2716049382716049</v>
+        <v>0.2583423035522067</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2196,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>59</v>
+        <v>689</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2204,13 +2198,13 @@
         <v>65</v>
       </c>
       <c r="K51">
-        <v>0.2612612612612613</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2222,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2230,13 +2224,13 @@
         <v>66</v>
       </c>
       <c r="K52">
-        <v>0.2508073196986007</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="L52">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="M52">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2248,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>696</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2256,13 +2250,13 @@
         <v>67</v>
       </c>
       <c r="K53">
-        <v>0.25</v>
+        <v>0.219435736677116</v>
       </c>
       <c r="L53">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="M53">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2274,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>63</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2282,7 +2276,7 @@
         <v>68</v>
       </c>
       <c r="K54">
-        <v>0.2380952380952381</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L54">
         <v>15</v>
@@ -2300,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2308,13 +2302,13 @@
         <v>69</v>
       </c>
       <c r="K55">
-        <v>0.225705329153605</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L55">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="M55">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2326,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>247</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2334,13 +2328,13 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>0.2013422818791946</v>
+        <v>0.2</v>
       </c>
       <c r="L56">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="M56">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2352,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>119</v>
+        <v>604</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2360,13 +2354,13 @@
         <v>71</v>
       </c>
       <c r="K57">
-        <v>0.1986754966887417</v>
+        <v>0.1930946291560102</v>
       </c>
       <c r="L57">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="M57">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2378,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>121</v>
+        <v>631</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2386,13 +2380,13 @@
         <v>72</v>
       </c>
       <c r="K58">
-        <v>0.1920529801324503</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L58">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2404,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>610</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2438,25 +2432,25 @@
         <v>74</v>
       </c>
       <c r="K60">
-        <v>0.1882202304737516</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="L60">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="N60">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>634</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2464,13 +2458,13 @@
         <v>75</v>
       </c>
       <c r="K61">
-        <v>0.1714285714285714</v>
+        <v>0.1721311475409836</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2482,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2490,13 +2484,13 @@
         <v>76</v>
       </c>
       <c r="K62">
-        <v>0.1666666666666667</v>
+        <v>0.1589403973509934</v>
       </c>
       <c r="L62">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M62">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2508,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2516,13 +2510,13 @@
         <v>77</v>
       </c>
       <c r="K63">
-        <v>0.1461538461538462</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="L63">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M63">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2534,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2542,25 +2536,25 @@
         <v>78</v>
       </c>
       <c r="K64">
-        <v>0.1428571428571428</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="L64">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M64">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N64">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>96</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2568,13 +2562,13 @@
         <v>79</v>
       </c>
       <c r="K65">
-        <v>0.139344262295082</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="L65">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M65">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2586,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2594,13 +2588,13 @@
         <v>80</v>
       </c>
       <c r="K66">
-        <v>0.138655462184874</v>
+        <v>0.1289537712895377</v>
       </c>
       <c r="L66">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="M66">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2612,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>205</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2620,13 +2614,13 @@
         <v>81</v>
       </c>
       <c r="K67">
-        <v>0.1355932203389831</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="L67">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M67">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2638,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2646,13 +2640,13 @@
         <v>82</v>
       </c>
       <c r="K68">
-        <v>0.1320754716981132</v>
+        <v>0.1218487394957983</v>
       </c>
       <c r="L68">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M68">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2664,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>322</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2672,13 +2666,13 @@
         <v>83</v>
       </c>
       <c r="K69">
-        <v>0.1280487804878049</v>
+        <v>0.1206140350877193</v>
       </c>
       <c r="L69">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="M69">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2690,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>143</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2698,25 +2692,25 @@
         <v>84</v>
       </c>
       <c r="K70">
-        <v>0.1275862068965517</v>
+        <v>0.1204545454545455</v>
       </c>
       <c r="L70">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M70">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="N70">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>253</v>
+        <v>387</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2724,25 +2718,25 @@
         <v>85</v>
       </c>
       <c r="K71">
-        <v>0.1265206812652068</v>
+        <v>0.1192411924119241</v>
       </c>
       <c r="L71">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M71">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>359</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2750,13 +2744,13 @@
         <v>86</v>
       </c>
       <c r="K72">
-        <v>0.1162790697674419</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L72">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M72">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2768,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>114</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2776,13 +2770,13 @@
         <v>87</v>
       </c>
       <c r="K73">
-        <v>0.1162280701754386</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L73">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M73">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2794,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>403</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2802,13 +2796,13 @@
         <v>88</v>
       </c>
       <c r="K74">
-        <v>0.1025641025641026</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2820,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2828,13 +2822,13 @@
         <v>89</v>
       </c>
       <c r="K75">
-        <v>0.09815950920245399</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2846,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>147</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2854,13 +2848,13 @@
         <v>90</v>
       </c>
       <c r="K76">
-        <v>0.09696969696969697</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L76">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M76">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2872,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2880,13 +2874,13 @@
         <v>91</v>
       </c>
       <c r="K77">
-        <v>0.0954653937947494</v>
+        <v>0.09852216748768473</v>
       </c>
       <c r="L77">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M77">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2898,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>379</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2906,13 +2900,13 @@
         <v>92</v>
       </c>
       <c r="K78">
-        <v>0.09134615384615384</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L78">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M78">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2924,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>189</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2932,13 +2926,13 @@
         <v>93</v>
       </c>
       <c r="K79">
-        <v>0.08866995073891626</v>
+        <v>0.08591885441527446</v>
       </c>
       <c r="L79">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M79">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2950,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2958,13 +2952,13 @@
         <v>94</v>
       </c>
       <c r="K80">
-        <v>0.08636363636363636</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="L80">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M80">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2976,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>402</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2984,13 +2978,13 @@
         <v>95</v>
       </c>
       <c r="K81">
-        <v>0.08518518518518518</v>
+        <v>0.06876790830945559</v>
       </c>
       <c r="L81">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M81">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3002,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>247</v>
+        <v>650</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3010,13 +3004,13 @@
         <v>96</v>
       </c>
       <c r="K82">
-        <v>0.07749077490774908</v>
+        <v>0.06156716417910447</v>
       </c>
       <c r="L82">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="M82">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3028,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>250</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3036,13 +3030,13 @@
         <v>97</v>
       </c>
       <c r="K83">
-        <v>0.06557377049180328</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="L83">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M83">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3054,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3062,25 +3056,25 @@
         <v>98</v>
       </c>
       <c r="K84">
-        <v>0.06169296987087518</v>
+        <v>0.0532994923857868</v>
       </c>
       <c r="L84">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="M84">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N84">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>654</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3088,25 +3082,25 @@
         <v>99</v>
       </c>
       <c r="K85">
-        <v>0.06091370558375635</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="L85">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M85">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>370</v>
+        <v>392</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3114,13 +3108,13 @@
         <v>100</v>
       </c>
       <c r="K86">
-        <v>0.05503731343283582</v>
+        <v>0.04383561643835616</v>
       </c>
       <c r="L86">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="M86">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3132,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>1013</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3140,25 +3134,25 @@
         <v>101</v>
       </c>
       <c r="K87">
-        <v>0.05350553505535055</v>
+        <v>0.04079861111111111</v>
       </c>
       <c r="L87">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M87">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>513</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3166,25 +3160,25 @@
         <v>102</v>
       </c>
       <c r="K88">
-        <v>0.0410958904109589</v>
+        <v>0.04038461538461539</v>
       </c>
       <c r="L88">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M88">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>350</v>
+        <v>499</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3192,13 +3186,13 @@
         <v>103</v>
       </c>
       <c r="K89">
-        <v>0.03889369057908384</v>
+        <v>0.03874538745387454</v>
       </c>
       <c r="L89">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M89">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3210,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>1112</v>
+        <v>521</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3218,77 +3212,25 @@
         <v>104</v>
       </c>
       <c r="K90">
-        <v>0.0387409200968523</v>
+        <v>0.02096985583224115</v>
       </c>
       <c r="L90">
         <v>16</v>
       </c>
       <c r="M90">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N90">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="O90">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K91">
-        <v>0.036468330134357</v>
-      </c>
-      <c r="L91">
-        <v>19</v>
-      </c>
-      <c r="M91">
-        <v>20</v>
-      </c>
-      <c r="N91">
-        <v>0.95</v>
-      </c>
-      <c r="O91">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="92" spans="10:17">
-      <c r="J92" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K92">
-        <v>0.0196078431372549</v>
-      </c>
-      <c r="L92">
-        <v>15</v>
-      </c>
-      <c r="M92">
-        <v>17</v>
-      </c>
-      <c r="N92">
-        <v>0.88</v>
-      </c>
-      <c r="O92">
-        <v>0.12</v>
-      </c>
-      <c r="P92" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
